--- a/03.設計/詳細設計書_STB03（DRAW）.xlsx
+++ b/03.設計/詳細設計書_STB03（DRAW）.xlsx
@@ -15,7 +15,6 @@
     <sheet name="表紙" sheetId="159" r:id="rId1"/>
     <sheet name="更新履歴" sheetId="169" r:id="rId2"/>
     <sheet name="処理概要" sheetId="166" r:id="rId3"/>
-    <sheet name="別紙_画面詳細" sheetId="171" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="範囲１" localSheetId="1">#REF!</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="136">
   <si>
     <t>プロジェクト番号</t>
     <rPh sb="6" eb="8">
@@ -718,31 +717,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・緑プレイヤー かつ ゴールが存在する場合、プレイヤーからゴールまでの角度を算出（）し、矢印を描画</t>
-    <rPh sb="1" eb="2">
-      <t>ミドリ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カクド</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>サンシュツ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ビョウガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>※</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1125,7 +1099,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>描画の詳細内容は「別紙_画面詳細」を参照</t>
+    <t>TM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>描画の詳細内容は「画面設計書_STB.xlsx（シート：SCR02（プレイ画面））」を参照</t>
     <rPh sb="0" eb="2">
       <t>ビョウガ</t>
     </rPh>
@@ -1136,22 +1118,17 @@
       <t>ナイヨウ</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>ベッシ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ガメンショウサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TM</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1234,7 +1211,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1250,12 +1227,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,7 +1522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1736,19 +1707,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1778,7 +1746,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1985,1707 +1953,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>343934</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>84467</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="図 41"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="167640"/>
-          <a:ext cx="11926334" cy="7460627"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="883920" y="3368040"/>
-          <a:ext cx="1706880" cy="2042160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線矢印コネクタ 4"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
-          <a:endCxn id="3" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2590800" y="4389120"/>
-          <a:ext cx="868680" cy="457200"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3459480" y="4648200"/>
-          <a:ext cx="1684020" cy="396240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>所持アイテム情報エリア</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="861060" y="853440"/>
-          <a:ext cx="1706880" cy="2286000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="1"/>
-          <a:endCxn id="16" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2567940" y="1996440"/>
-          <a:ext cx="868680" cy="335280"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3436620" y="2133600"/>
-          <a:ext cx="1684020" cy="396240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エネミー情報エリア</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="876300" y="5920740"/>
-          <a:ext cx="1706880" cy="1485900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3063240" y="6713220"/>
-          <a:ext cx="1684020" cy="396240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ゲーム情報エリア</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="1"/>
-          <a:endCxn id="21" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2583180" y="6663690"/>
-          <a:ext cx="480060" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7482840" y="502920"/>
-          <a:ext cx="563880" cy="472440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線矢印コネクタ 27"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="1"/>
-          <a:endCxn id="27" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="8046720" y="739140"/>
-          <a:ext cx="434340" cy="396240"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8481060" y="937260"/>
-          <a:ext cx="731520" cy="396240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>WALL</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6309360" y="1021080"/>
-          <a:ext cx="609600" cy="586740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="39" idx="1"/>
-          <a:endCxn id="37" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6918960" y="1314450"/>
-          <a:ext cx="220980" cy="316230"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7139940" y="1432560"/>
-          <a:ext cx="701040" cy="396240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>POINT</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4091940" y="3878580"/>
-          <a:ext cx="518160" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="49" idx="1"/>
-          <a:endCxn id="47" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4610100" y="4038600"/>
-          <a:ext cx="358140" cy="144780"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4968240" y="3840480"/>
-          <a:ext cx="746760" cy="396240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>GOAL</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4015740" y="1059180"/>
-          <a:ext cx="609600" cy="586740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="直線矢印コネクタ 54"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="1"/>
-          <a:endCxn id="54" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4625340" y="1352550"/>
-          <a:ext cx="220980" cy="316230"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4846320" y="1470660"/>
-          <a:ext cx="701040" cy="396240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ITEM</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6362700" y="3924300"/>
-          <a:ext cx="609600" cy="586740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="直線矢印コネクタ 57"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="59" idx="1"/>
-          <a:endCxn id="57" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6972300" y="4217670"/>
-          <a:ext cx="220980" cy="316230"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7193280" y="4335780"/>
-          <a:ext cx="891540" cy="396240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>プレイヤー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="正方形/長方形 60"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5166360" y="4465320"/>
-          <a:ext cx="609600" cy="586740"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="直線矢印コネクタ 61"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="63" idx="1"/>
-          <a:endCxn id="61" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5775960" y="4758690"/>
-          <a:ext cx="220980" cy="316230"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5996940" y="4876800"/>
-          <a:ext cx="891540" cy="396240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>エネミー</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3981,34 +2248,34 @@
     </row>
     <row r="6" spans="3:16" ht="49.2" customHeight="1">
       <c r="C6" s="7"/>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="80" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
       <c r="N6" s="8"/>
     </row>
     <row r="7" spans="3:16" ht="49.2" customHeight="1">
       <c r="C7" s="7"/>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -4027,80 +2294,80 @@
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickTop="1"/>
     <row r="11" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="83"/>
-      <c r="H11" s="84" t="s">
+      <c r="G11" s="82"/>
+      <c r="H11" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="85"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
     </row>
     <row r="12" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="83"/>
-      <c r="H12" s="82" t="s">
+      <c r="G12" s="82"/>
+      <c r="H12" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="83"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="82"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
     </row>
     <row r="13" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="83"/>
-      <c r="H13" s="84" t="s">
+      <c r="G13" s="82"/>
+      <c r="H13" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="85"/>
     </row>
     <row r="14" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F14" s="82" t="s">
+      <c r="F14" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="84" t="s">
+      <c r="G14" s="82"/>
+      <c r="H14" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="85"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="85"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="83"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="85"/>
       <c r="N16" s="1" t="s">
         <v>60</v>
       </c>
@@ -4175,58 +2442,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="89" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
       <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="90" t="str">
+      <c r="Q1" s="89" t="str">
         <f>D5</f>
         <v>TM</v>
       </c>
-      <c r="R1" s="90"/>
+      <c r="R1" s="89"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="88"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="91">
+      <c r="Q2" s="90">
         <f>B5</f>
         <v>45170</v>
       </c>
-      <c r="R2" s="90"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="20"/>
@@ -4252,435 +2519,435 @@
       <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92" t="s">
+      <c r="E4" s="91"/>
+      <c r="F4" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="92"/>
-      <c r="I4" s="92" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="92"/>
-      <c r="P4" s="92"/>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="B5" s="93">
+      <c r="B5" s="92">
         <v>45170</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="95" t="s">
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98"/>
-      <c r="R6" s="98"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="98"/>
-      <c r="R8" s="98"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="98"/>
-      <c r="R9" s="98"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="98"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
-      <c r="P13" s="98"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="98"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
-      <c r="P14" s="98"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="98"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
-      <c r="P15" s="98"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="98"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="23">
         <v>12</v>
       </c>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
-      <c r="P16" s="98"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="98"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="23">
         <v>13</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
-      <c r="P17" s="98"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="98"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="98"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
-      <c r="P19" s="98"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="98"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
-      <c r="P21" s="98"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="98"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
-      <c r="P22" s="98"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="98"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -4781,10 +3048,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ89"/>
+  <dimension ref="A1:AJ88"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
@@ -4800,112 +3067,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="102" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="114" t="str">
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="113" t="str">
         <f>表紙!D6</f>
         <v>Street Biter (STB)</v>
       </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="116"/>
-      <c r="Y1" s="102" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="103"/>
-      <c r="AA1" s="100" t="str">
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="99" t="str">
         <f>更新履歴!D5</f>
         <v>TM</v>
       </c>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100" t="s">
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="99" t="str">
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="98" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
         <v>TM</v>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
-      <c r="AJ1" s="100"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="102" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="111" t="str">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="110" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>03_DRAW</v>
       </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="112"/>
-      <c r="W2" s="112"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="102" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="103"/>
-      <c r="AA2" s="101">
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="100">
         <f>更新履歴!B5</f>
         <v>45170</v>
       </c>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="100" t="s">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="101">
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="100">
         <f>MAX(更新履歴!B:B)</f>
         <v>45170</v>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="35"/>
@@ -5443,7 +3710,7 @@
       <c r="AA19" s="41"/>
       <c r="AB19" s="41"/>
       <c r="AC19" s="27"/>
-      <c r="AD19" s="69"/>
+      <c r="AD19" s="68"/>
       <c r="AE19" s="41"/>
       <c r="AF19" s="41"/>
       <c r="AG19" s="41"/>
@@ -5452,7 +3719,7 @@
       <c r="AJ19" s="27"/>
     </row>
     <row r="20" spans="1:36" ht="15" customHeight="1">
-      <c r="A20" s="70"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="41"/>
       <c r="C20" s="41"/>
       <c r="D20" s="41"/>
@@ -5481,7 +3748,7 @@
       <c r="AA20" s="41"/>
       <c r="AB20" s="41"/>
       <c r="AC20" s="27"/>
-      <c r="AD20" s="69"/>
+      <c r="AD20" s="68"/>
       <c r="AE20" s="41"/>
       <c r="AF20" s="41"/>
       <c r="AG20" s="41"/>
@@ -5533,7 +3800,7 @@
       <c r="AJ23" s="27"/>
     </row>
     <row r="24" spans="1:36" ht="15" customHeight="1">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="69" t="s">
         <v>57</v>
       </c>
       <c r="B24" s="17"/>
@@ -5650,11 +3917,11 @@
       <c r="AJ30" s="27"/>
     </row>
     <row r="31" spans="1:36" ht="15" customHeight="1">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>84</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>85</v>
       </c>
       <c r="G31" s="17"/>
       <c r="AC31" s="27"/>
@@ -5667,11 +3934,11 @@
       <c r="AJ31" s="27"/>
     </row>
     <row r="32" spans="1:36" ht="15" customHeight="1">
-      <c r="A32" s="78" t="s">
-        <v>84</v>
+      <c r="A32" s="77" t="s">
+        <v>83</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G32" s="17"/>
       <c r="AC32" s="27"/>
@@ -5718,179 +3985,179 @@
       <c r="AJ34" s="27"/>
     </row>
     <row r="35" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B35" s="71"/>
-      <c r="D35" s="63" t="s">
+      <c r="B35" s="70"/>
+      <c r="D35" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="76" t="s">
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="I35" s="65"/>
-      <c r="J35" s="66"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="74"/>
-      <c r="AJ35" s="72"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="65"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="72"/>
+      <c r="AE35" s="73"/>
+      <c r="AF35" s="73"/>
+      <c r="AG35" s="73"/>
+      <c r="AH35" s="73"/>
+      <c r="AI35" s="73"/>
+      <c r="AJ35" s="71"/>
     </row>
     <row r="36" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B36" s="71"/>
-      <c r="D36" s="67" t="s">
+      <c r="B36" s="70"/>
+      <c r="D36" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="77" t="s">
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="68"/>
+      <c r="I36" s="67"/>
       <c r="J36" s="61"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="AC36" s="72"/>
-      <c r="AD36" s="73"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="74"/>
-      <c r="AG36" s="74"/>
-      <c r="AH36" s="74"/>
-      <c r="AI36" s="74"/>
-      <c r="AJ36" s="72"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="73"/>
+      <c r="AF36" s="73"/>
+      <c r="AG36" s="73"/>
+      <c r="AH36" s="73"/>
+      <c r="AI36" s="73"/>
+      <c r="AJ36" s="71"/>
     </row>
     <row r="37" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B37" s="71"/>
-      <c r="D37" s="67" t="s">
+      <c r="B37" s="70"/>
+      <c r="D37" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="77" t="s">
+      <c r="E37" s="67"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="I37" s="68"/>
+      <c r="I37" s="67"/>
       <c r="J37" s="61"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="AC37" s="72"/>
-      <c r="AD37" s="73"/>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="74"/>
-      <c r="AG37" s="74"/>
-      <c r="AH37" s="74"/>
-      <c r="AI37" s="74"/>
-      <c r="AJ37" s="72"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="AC37" s="71"/>
+      <c r="AD37" s="72"/>
+      <c r="AE37" s="73"/>
+      <c r="AF37" s="73"/>
+      <c r="AG37" s="73"/>
+      <c r="AH37" s="73"/>
+      <c r="AI37" s="73"/>
+      <c r="AJ37" s="71"/>
     </row>
     <row r="38" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B38" s="71"/>
-      <c r="D38" s="67" t="s">
+      <c r="B38" s="70"/>
+      <c r="D38" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="77" t="s">
+      <c r="E38" s="67"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="I38" s="68"/>
+      <c r="I38" s="67"/>
       <c r="J38" s="61"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="73"/>
-      <c r="AE38" s="74"/>
-      <c r="AF38" s="74"/>
-      <c r="AG38" s="74"/>
-      <c r="AH38" s="74"/>
-      <c r="AI38" s="74"/>
-      <c r="AJ38" s="72"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="AC38" s="71"/>
+      <c r="AD38" s="72"/>
+      <c r="AE38" s="73"/>
+      <c r="AF38" s="73"/>
+      <c r="AG38" s="73"/>
+      <c r="AH38" s="73"/>
+      <c r="AI38" s="73"/>
+      <c r="AJ38" s="71"/>
     </row>
     <row r="39" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B39" s="71"/>
-      <c r="D39" s="67" t="s">
+      <c r="B39" s="70"/>
+      <c r="D39" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="77" t="s">
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="68"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="61"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="AC39" s="72"/>
-      <c r="AD39" s="73"/>
-      <c r="AE39" s="74"/>
-      <c r="AF39" s="74"/>
-      <c r="AG39" s="74"/>
-      <c r="AH39" s="74"/>
-      <c r="AI39" s="74"/>
-      <c r="AJ39" s="72"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="AC39" s="71"/>
+      <c r="AD39" s="72"/>
+      <c r="AE39" s="73"/>
+      <c r="AF39" s="73"/>
+      <c r="AG39" s="73"/>
+      <c r="AH39" s="73"/>
+      <c r="AI39" s="73"/>
+      <c r="AJ39" s="71"/>
     </row>
     <row r="40" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B40" s="71"/>
-      <c r="D40" s="67" t="s">
+      <c r="B40" s="70"/>
+      <c r="D40" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="77" t="s">
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="I40" s="68"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="61"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="AC40" s="72"/>
-      <c r="AD40" s="73"/>
-      <c r="AE40" s="74"/>
-      <c r="AF40" s="74"/>
-      <c r="AG40" s="74"/>
-      <c r="AH40" s="74"/>
-      <c r="AI40" s="74"/>
-      <c r="AJ40" s="72"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="AC40" s="71"/>
+      <c r="AD40" s="72"/>
+      <c r="AE40" s="73"/>
+      <c r="AF40" s="73"/>
+      <c r="AG40" s="73"/>
+      <c r="AH40" s="73"/>
+      <c r="AI40" s="73"/>
+      <c r="AJ40" s="71"/>
     </row>
     <row r="41" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B41" s="71"/>
-      <c r="D41" s="67" t="s">
+      <c r="B41" s="70"/>
+      <c r="D41" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="77" t="s">
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="I41" s="68"/>
+      <c r="I41" s="67"/>
       <c r="J41" s="61"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="AC41" s="72"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="74"/>
-      <c r="AF41" s="74"/>
-      <c r="AG41" s="74"/>
-      <c r="AH41" s="74"/>
-      <c r="AI41" s="74"/>
-      <c r="AJ41" s="72"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="AC41" s="71"/>
+      <c r="AD41" s="72"/>
+      <c r="AE41" s="73"/>
+      <c r="AF41" s="73"/>
+      <c r="AG41" s="73"/>
+      <c r="AH41" s="73"/>
+      <c r="AI41" s="73"/>
+      <c r="AJ41" s="71"/>
     </row>
     <row r="42" spans="1:36" ht="15" customHeight="1">
       <c r="B42" s="57"/>
@@ -5972,19 +4239,9 @@
       <c r="AJ46" s="27"/>
     </row>
     <row r="47" spans="1:36" ht="15" customHeight="1">
-      <c r="B47" s="57"/>
-      <c r="C47" s="17" t="s">
-        <v>83</v>
-      </c>
+      <c r="A47" s="57"/>
+      <c r="B47" s="17"/>
       <c r="G47" s="17"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
       <c r="AC47" s="27"/>
       <c r="AD47" s="26"/>
       <c r="AE47" s="41"/>
@@ -5995,8 +4252,15 @@
       <c r="AJ47" s="27"/>
     </row>
     <row r="48" spans="1:36" ht="15" customHeight="1">
-      <c r="A48" s="57"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
       <c r="G48" s="17"/>
       <c r="AC48" s="27"/>
       <c r="AD48" s="26"/>
@@ -6008,9 +4272,7 @@
       <c r="AJ48" s="27"/>
     </row>
     <row r="49" spans="1:36" ht="15" customHeight="1">
-      <c r="A49" s="57" t="s">
-        <v>34</v>
-      </c>
+      <c r="A49" s="57"/>
       <c r="B49" s="44" t="s">
         <v>86</v>
       </c>
@@ -6029,13 +4291,27 @@
     </row>
     <row r="50" spans="1:36" ht="15" customHeight="1">
       <c r="A50" s="57"/>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="17"/>
+      <c r="C50" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="75" t="s">
         <v>87</v>
       </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44"/>
-      <c r="E50" s="44"/>
-      <c r="G50" s="17"/>
+      <c r="H50" s="64"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="L50" s="64"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="65"/>
       <c r="AC50" s="27"/>
       <c r="AD50" s="26"/>
       <c r="AE50" s="41"/>
@@ -6048,26 +4324,26 @@
     <row r="51" spans="1:36" ht="15" customHeight="1">
       <c r="A51" s="57"/>
       <c r="B51" s="17"/>
-      <c r="C51" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
+      <c r="C51" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D51" s="67"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="67"/>
       <c r="G51" s="76" t="s">
-        <v>88</v>
-      </c>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
-      <c r="J51" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="H51" s="67"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="67"/>
       <c r="K51" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="L51" s="65"/>
-      <c r="M51" s="65"/>
-      <c r="N51" s="65"/>
-      <c r="O51" s="65"/>
-      <c r="P51" s="66"/>
+        <v>94</v>
+      </c>
+      <c r="L51" s="67"/>
+      <c r="M51" s="67"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="67"/>
+      <c r="P51" s="61"/>
       <c r="AC51" s="27"/>
       <c r="AD51" s="26"/>
       <c r="AE51" s="41"/>
@@ -6080,25 +4356,25 @@
     <row r="52" spans="1:36" ht="15" customHeight="1">
       <c r="A52" s="57"/>
       <c r="B52" s="17"/>
-      <c r="C52" s="67" t="s">
+      <c r="C52" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="77" t="s">
+      <c r="D52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="76" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="76" t="s">
         <v>92</v>
       </c>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="68"/>
+      <c r="L52" s="67"/>
+      <c r="M52" s="67"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="67"/>
       <c r="P52" s="61"/>
       <c r="AC52" s="27"/>
       <c r="AD52" s="26"/>
@@ -6112,26 +4388,7 @@
     <row r="53" spans="1:36" ht="15" customHeight="1">
       <c r="A53" s="57"/>
       <c r="B53" s="17"/>
-      <c r="C53" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="77" t="s">
-        <v>94</v>
-      </c>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="L53" s="68"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="61"/>
+      <c r="G53" s="17"/>
       <c r="AC53" s="27"/>
       <c r="AD53" s="26"/>
       <c r="AE53" s="41"/>
@@ -6142,8 +4399,12 @@
       <c r="AJ53" s="27"/>
     </row>
     <row r="54" spans="1:36" ht="15" customHeight="1">
-      <c r="A54" s="57"/>
-      <c r="B54" s="17"/>
+      <c r="A54" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="G54" s="17"/>
       <c r="AC54" s="27"/>
       <c r="AD54" s="26"/>
@@ -6155,11 +4416,9 @@
       <c r="AJ54" s="27"/>
     </row>
     <row r="55" spans="1:36" ht="15" customHeight="1">
-      <c r="A55" s="59" t="s">
-        <v>35</v>
-      </c>
+      <c r="A55" s="59"/>
       <c r="B55" s="17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G55" s="17"/>
       <c r="AC55" s="27"/>
@@ -6173,9 +4432,7 @@
     </row>
     <row r="56" spans="1:36" ht="15" customHeight="1">
       <c r="A56" s="59"/>
-      <c r="B56" s="17" t="s">
-        <v>99</v>
-      </c>
+      <c r="B56" s="17"/>
       <c r="G56" s="17"/>
       <c r="AC56" s="27"/>
       <c r="AD56" s="26"/>
@@ -6187,8 +4444,12 @@
       <c r="AJ56" s="27"/>
     </row>
     <row r="57" spans="1:36" ht="15" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="17"/>
+      <c r="A57" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>96</v>
+      </c>
       <c r="G57" s="17"/>
       <c r="AC57" s="27"/>
       <c r="AD57" s="26"/>
@@ -6200,9 +4461,7 @@
       <c r="AJ57" s="27"/>
     </row>
     <row r="58" spans="1:36" ht="15" customHeight="1">
-      <c r="A58" s="59" t="s">
-        <v>36</v>
-      </c>
+      <c r="A58" s="59"/>
       <c r="B58" s="17" t="s">
         <v>97</v>
       </c>
@@ -6219,7 +4478,7 @@
     <row r="59" spans="1:36" ht="15" customHeight="1">
       <c r="A59" s="59"/>
       <c r="B59" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G59" s="17"/>
       <c r="AC59" s="27"/>
@@ -6231,272 +4490,270 @@
       <c r="AI59" s="41"/>
       <c r="AJ59" s="27"/>
     </row>
-    <row r="60" spans="1:36" ht="15" customHeight="1">
-      <c r="A60" s="59"/>
-      <c r="B60" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G60" s="17"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="41"/>
-      <c r="AF60" s="41"/>
-      <c r="AG60" s="41"/>
-      <c r="AH60" s="41"/>
-      <c r="AI60" s="41"/>
-      <c r="AJ60" s="27"/>
+    <row r="60" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="B60" s="70"/>
+      <c r="C60" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="H60" s="65"/>
+      <c r="I60" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="J60" s="65"/>
+      <c r="K60" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="L60" s="65"/>
+      <c r="M60" s="75" t="s">
+        <v>108</v>
+      </c>
+      <c r="N60" s="65"/>
+      <c r="O60" s="75" t="s">
+        <v>109</v>
+      </c>
+      <c r="P60" s="65"/>
+      <c r="AC60" s="71"/>
+      <c r="AD60" s="72"/>
+      <c r="AE60" s="73"/>
+      <c r="AF60" s="73"/>
+      <c r="AG60" s="73"/>
+      <c r="AH60" s="73"/>
+      <c r="AI60" s="73"/>
+      <c r="AJ60" s="71"/>
     </row>
     <row r="61" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B61" s="71"/>
-      <c r="C61" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="64"/>
-      <c r="E61" s="64"/>
-      <c r="F61" s="64"/>
+      <c r="B61" s="70"/>
+      <c r="C61" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="67"/>
       <c r="G61" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="66"/>
+        <v>110</v>
+      </c>
+      <c r="H61" s="61"/>
       <c r="I61" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="J61" s="66"/>
+        <v>110</v>
+      </c>
+      <c r="J61" s="61"/>
       <c r="K61" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="L61" s="66"/>
+        <v>110</v>
+      </c>
+      <c r="L61" s="61"/>
       <c r="M61" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="N61" s="66"/>
+        <v>110</v>
+      </c>
+      <c r="N61" s="61"/>
       <c r="O61" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="P61" s="66"/>
-      <c r="AC61" s="72"/>
-      <c r="AD61" s="73"/>
-      <c r="AE61" s="74"/>
-      <c r="AF61" s="74"/>
-      <c r="AG61" s="74"/>
-      <c r="AH61" s="74"/>
-      <c r="AI61" s="74"/>
-      <c r="AJ61" s="72"/>
+      <c r="P61" s="61"/>
+      <c r="AC61" s="71"/>
+      <c r="AD61" s="72"/>
+      <c r="AE61" s="73"/>
+      <c r="AF61" s="73"/>
+      <c r="AG61" s="73"/>
+      <c r="AH61" s="73"/>
+      <c r="AI61" s="73"/>
+      <c r="AJ61" s="71"/>
     </row>
     <row r="62" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B62" s="71"/>
-      <c r="C62" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="77" t="s">
+      <c r="B62" s="70"/>
+      <c r="C62" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="76" t="s">
         <v>111</v>
       </c>
       <c r="H62" s="61"/>
-      <c r="I62" s="77" t="s">
+      <c r="I62" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="J62" s="61"/>
+      <c r="K62" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="L62" s="61"/>
+      <c r="M62" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="N62" s="61"/>
+      <c r="O62" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="P62" s="61"/>
+      <c r="AC62" s="71"/>
+      <c r="AD62" s="72"/>
+      <c r="AE62" s="73"/>
+      <c r="AF62" s="73"/>
+      <c r="AG62" s="73"/>
+      <c r="AH62" s="73"/>
+      <c r="AI62" s="73"/>
+      <c r="AJ62" s="71"/>
+    </row>
+    <row r="63" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="B63" s="70"/>
+      <c r="C63" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="J62" s="61"/>
-      <c r="K62" s="77" t="s">
+      <c r="H63" s="61"/>
+      <c r="I63" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="L62" s="61"/>
-      <c r="M62" s="77" t="s">
+      <c r="J63" s="61"/>
+      <c r="K63" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="L63" s="61"/>
+      <c r="M63" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="N63" s="61"/>
+      <c r="O63" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="P63" s="61"/>
+      <c r="AC63" s="71"/>
+      <c r="AD63" s="72"/>
+      <c r="AE63" s="73"/>
+      <c r="AF63" s="73"/>
+      <c r="AG63" s="73"/>
+      <c r="AH63" s="73"/>
+      <c r="AI63" s="73"/>
+      <c r="AJ63" s="71"/>
+    </row>
+    <row r="64" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="B64" s="70"/>
+      <c r="C64" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="N62" s="61"/>
-      <c r="O62" s="77" t="s">
+      <c r="H64" s="61"/>
+      <c r="I64" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="P62" s="61"/>
-      <c r="AC62" s="72"/>
-      <c r="AD62" s="73"/>
-      <c r="AE62" s="74"/>
-      <c r="AF62" s="74"/>
-      <c r="AG62" s="74"/>
-      <c r="AH62" s="74"/>
-      <c r="AI62" s="74"/>
-      <c r="AJ62" s="72"/>
-    </row>
-    <row r="63" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B63" s="71"/>
-      <c r="C63" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="68"/>
-      <c r="G63" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="H63" s="61"/>
-      <c r="I63" s="77" t="s">
+      <c r="J64" s="61"/>
+      <c r="K64" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="J63" s="61"/>
-      <c r="K63" s="77" t="s">
+      <c r="L64" s="61"/>
+      <c r="M64" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="N64" s="61"/>
+      <c r="O64" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="P64" s="61"/>
+      <c r="AC64" s="71"/>
+      <c r="AD64" s="72"/>
+      <c r="AE64" s="73"/>
+      <c r="AF64" s="73"/>
+      <c r="AG64" s="73"/>
+      <c r="AH64" s="73"/>
+      <c r="AI64" s="73"/>
+      <c r="AJ64" s="71"/>
+    </row>
+    <row r="65" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="B65" s="70"/>
+      <c r="C65" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="L63" s="61"/>
-      <c r="M63" s="77" t="s">
+      <c r="H65" s="61"/>
+      <c r="I65" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="N63" s="61"/>
-      <c r="O63" s="77" t="s">
+      <c r="J65" s="61"/>
+      <c r="K65" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="P63" s="61"/>
-      <c r="AC63" s="72"/>
-      <c r="AD63" s="73"/>
-      <c r="AE63" s="74"/>
-      <c r="AF63" s="74"/>
-      <c r="AG63" s="74"/>
-      <c r="AH63" s="74"/>
-      <c r="AI63" s="74"/>
-      <c r="AJ63" s="72"/>
-    </row>
-    <row r="64" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B64" s="71"/>
-      <c r="C64" s="67" t="s">
-        <v>102</v>
-      </c>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="H64" s="61"/>
-      <c r="I64" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="J64" s="61"/>
-      <c r="K64" s="77" t="s">
+      <c r="L65" s="61"/>
+      <c r="M65" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="L64" s="61"/>
-      <c r="M64" s="77" t="s">
+      <c r="N65" s="61"/>
+      <c r="O65" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="P65" s="61"/>
+      <c r="AC65" s="71"/>
+      <c r="AD65" s="72"/>
+      <c r="AE65" s="73"/>
+      <c r="AF65" s="73"/>
+      <c r="AG65" s="73"/>
+      <c r="AH65" s="73"/>
+      <c r="AI65" s="73"/>
+      <c r="AJ65" s="71"/>
+    </row>
+    <row r="66" spans="1:36" ht="15" customHeight="1">
+      <c r="A66" s="59"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="N64" s="61"/>
-      <c r="O64" s="77" t="s">
+      <c r="H66" s="61"/>
+      <c r="I66" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="P64" s="61"/>
-      <c r="AC64" s="72"/>
-      <c r="AD64" s="73"/>
-      <c r="AE64" s="74"/>
-      <c r="AF64" s="74"/>
-      <c r="AG64" s="74"/>
-      <c r="AH64" s="74"/>
-      <c r="AI64" s="74"/>
-      <c r="AJ64" s="72"/>
-    </row>
-    <row r="65" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B65" s="71"/>
-      <c r="C65" s="67" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="68"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="68"/>
-      <c r="G65" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="H65" s="61"/>
-      <c r="I65" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="J65" s="61"/>
-      <c r="K65" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="L65" s="61"/>
-      <c r="M65" s="77" t="s">
+      <c r="J66" s="61"/>
+      <c r="K66" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="N65" s="61"/>
-      <c r="O65" s="77" t="s">
+      <c r="L66" s="61"/>
+      <c r="M66" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="P65" s="61"/>
-      <c r="AC65" s="72"/>
-      <c r="AD65" s="73"/>
-      <c r="AE65" s="74"/>
-      <c r="AF65" s="74"/>
-      <c r="AG65" s="74"/>
-      <c r="AH65" s="74"/>
-      <c r="AI65" s="74"/>
-      <c r="AJ65" s="72"/>
-    </row>
-    <row r="66" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="B66" s="71"/>
-      <c r="C66" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="H66" s="61"/>
-      <c r="I66" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="J66" s="61"/>
-      <c r="K66" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="L66" s="61"/>
-      <c r="M66" s="77" t="s">
-        <v>112</v>
-      </c>
       <c r="N66" s="61"/>
-      <c r="O66" s="77" t="s">
+      <c r="O66" s="76" t="s">
         <v>111</v>
       </c>
       <c r="P66" s="61"/>
-      <c r="AC66" s="72"/>
-      <c r="AD66" s="73"/>
-      <c r="AE66" s="74"/>
-      <c r="AF66" s="74"/>
-      <c r="AG66" s="74"/>
-      <c r="AH66" s="74"/>
-      <c r="AI66" s="74"/>
-      <c r="AJ66" s="72"/>
+      <c r="AC66" s="27"/>
+      <c r="AD66" s="26"/>
+      <c r="AE66" s="41"/>
+      <c r="AF66" s="41"/>
+      <c r="AG66" s="41"/>
+      <c r="AH66" s="41"/>
+      <c r="AI66" s="41"/>
+      <c r="AJ66" s="27"/>
     </row>
     <row r="67" spans="1:36" ht="15" customHeight="1">
-      <c r="A67" s="59"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="17"/>
-      <c r="C67" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="D67" s="68"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="68"/>
-      <c r="G67" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="H67" s="61"/>
-      <c r="I67" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="J67" s="61"/>
-      <c r="K67" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="L67" s="61"/>
-      <c r="M67" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="N67" s="61"/>
-      <c r="O67" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="P67" s="61"/>
+      <c r="G67" s="17"/>
       <c r="AC67" s="27"/>
       <c r="AD67" s="26"/>
       <c r="AE67" s="41"/>
@@ -6507,8 +4764,12 @@
       <c r="AJ67" s="27"/>
     </row>
     <row r="68" spans="1:36" ht="15" customHeight="1">
-      <c r="A68" s="57"/>
-      <c r="B68" s="17"/>
+      <c r="A68" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="G68" s="17"/>
       <c r="AC68" s="27"/>
       <c r="AD68" s="26"/>
@@ -6520,13 +4781,21 @@
       <c r="AJ68" s="27"/>
     </row>
     <row r="69" spans="1:36" ht="15" customHeight="1">
-      <c r="A69" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="B69" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="G69" s="17"/>
+      <c r="A69" s="57"/>
+      <c r="B69" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
       <c r="AC69" s="27"/>
       <c r="AD69" s="26"/>
       <c r="AE69" s="41"/>
@@ -6536,444 +4805,419 @@
       <c r="AI69" s="41"/>
       <c r="AJ69" s="27"/>
     </row>
-    <row r="70" spans="1:36" ht="15" customHeight="1">
-      <c r="A70" s="57"/>
+    <row r="70" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A70" s="70"/>
       <c r="B70" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="44"/>
-      <c r="D70" s="44"/>
-      <c r="E70" s="44"/>
-      <c r="F70" s="44"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="44"/>
-      <c r="L70" s="44"/>
-      <c r="M70" s="44"/>
-      <c r="AC70" s="27"/>
-      <c r="AD70" s="26"/>
-      <c r="AE70" s="41"/>
-      <c r="AF70" s="41"/>
-      <c r="AG70" s="41"/>
-      <c r="AH70" s="41"/>
-      <c r="AI70" s="41"/>
-      <c r="AJ70" s="27"/>
+        <v>122</v>
+      </c>
+      <c r="AC70" s="71"/>
+      <c r="AD70" s="72"/>
+      <c r="AE70" s="73"/>
+      <c r="AF70" s="73"/>
+      <c r="AG70" s="73"/>
+      <c r="AH70" s="73"/>
+      <c r="AI70" s="73"/>
+      <c r="AJ70" s="71"/>
     </row>
     <row r="71" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A71" s="71"/>
-      <c r="B71" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC71" s="72"/>
-      <c r="AD71" s="73"/>
-      <c r="AE71" s="74"/>
-      <c r="AF71" s="74"/>
-      <c r="AG71" s="74"/>
-      <c r="AH71" s="74"/>
-      <c r="AI71" s="74"/>
-      <c r="AJ71" s="72"/>
+      <c r="A71" s="74"/>
+      <c r="C71" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="63"/>
+      <c r="E71" s="63"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="65"/>
+      <c r="AC71" s="71"/>
+      <c r="AD71" s="72"/>
+      <c r="AE71" s="73"/>
+      <c r="AF71" s="73"/>
+      <c r="AG71" s="73"/>
+      <c r="AH71" s="73"/>
+      <c r="AI71" s="73"/>
+      <c r="AJ71" s="71"/>
     </row>
     <row r="72" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A72" s="75"/>
-      <c r="C72" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
+      <c r="C72" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="67"/>
       <c r="G72" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="H72" s="65"/>
-      <c r="I72" s="65"/>
-      <c r="J72" s="66"/>
-      <c r="AC72" s="72"/>
-      <c r="AD72" s="73"/>
-      <c r="AE72" s="74"/>
-      <c r="AF72" s="74"/>
-      <c r="AG72" s="74"/>
-      <c r="AH72" s="74"/>
-      <c r="AI72" s="74"/>
-      <c r="AJ72" s="72"/>
+      <c r="H72" s="67"/>
+      <c r="I72" s="67"/>
+      <c r="J72" s="61"/>
+      <c r="AC72" s="71"/>
+      <c r="AD72" s="72"/>
+      <c r="AE72" s="73"/>
+      <c r="AF72" s="73"/>
+      <c r="AG72" s="73"/>
+      <c r="AH72" s="73"/>
+      <c r="AI72" s="73"/>
+      <c r="AJ72" s="71"/>
     </row>
     <row r="73" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="C73" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="77" t="s">
+      <c r="A73" s="70"/>
+      <c r="C73" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
       <c r="J73" s="61"/>
-      <c r="AC73" s="72"/>
-      <c r="AD73" s="73"/>
-      <c r="AE73" s="74"/>
-      <c r="AF73" s="74"/>
-      <c r="AG73" s="74"/>
-      <c r="AH73" s="74"/>
-      <c r="AI73" s="74"/>
-      <c r="AJ73" s="72"/>
+      <c r="AC73" s="71"/>
+      <c r="AD73" s="72"/>
+      <c r="AE73" s="73"/>
+      <c r="AF73" s="73"/>
+      <c r="AG73" s="73"/>
+      <c r="AH73" s="73"/>
+      <c r="AI73" s="73"/>
+      <c r="AJ73" s="71"/>
     </row>
     <row r="74" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A74" s="71"/>
-      <c r="C74" s="67" t="s">
+      <c r="A74" s="70"/>
+      <c r="B74" s="78"/>
+      <c r="C74" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="77" t="s">
+      <c r="D74" s="67"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="67"/>
+      <c r="G74" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
+      <c r="H74" s="67"/>
+      <c r="I74" s="67"/>
       <c r="J74" s="61"/>
-      <c r="AC74" s="72"/>
-      <c r="AD74" s="73"/>
-      <c r="AE74" s="74"/>
-      <c r="AF74" s="74"/>
-      <c r="AG74" s="74"/>
-      <c r="AH74" s="74"/>
-      <c r="AI74" s="74"/>
-      <c r="AJ74" s="72"/>
+      <c r="AC74" s="71"/>
+      <c r="AD74" s="72"/>
+      <c r="AE74" s="73"/>
+      <c r="AF74" s="73"/>
+      <c r="AG74" s="73"/>
+      <c r="AH74" s="73"/>
+      <c r="AI74" s="73"/>
+      <c r="AJ74" s="71"/>
     </row>
     <row r="75" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A75" s="71"/>
-      <c r="B75" s="79"/>
-      <c r="C75" s="67" t="s">
+      <c r="A75" s="74"/>
+      <c r="C75" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="D75" s="68"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="68"/>
-      <c r="G75" s="77" t="s">
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="H75" s="68"/>
-      <c r="I75" s="68"/>
+      <c r="H75" s="67"/>
+      <c r="I75" s="67"/>
       <c r="J75" s="61"/>
-      <c r="AC75" s="72"/>
-      <c r="AD75" s="73"/>
-      <c r="AE75" s="74"/>
-      <c r="AF75" s="74"/>
-      <c r="AG75" s="74"/>
-      <c r="AH75" s="74"/>
-      <c r="AI75" s="74"/>
-      <c r="AJ75" s="72"/>
+      <c r="AC75" s="71"/>
+      <c r="AD75" s="72"/>
+      <c r="AE75" s="73"/>
+      <c r="AF75" s="73"/>
+      <c r="AG75" s="73"/>
+      <c r="AH75" s="73"/>
+      <c r="AI75" s="73"/>
+      <c r="AJ75" s="71"/>
     </row>
     <row r="76" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A76" s="75"/>
-      <c r="C76" s="67" t="s">
-        <v>116</v>
-      </c>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="77" t="s">
+      <c r="C76" s="79">
+        <v>30</v>
+      </c>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
       <c r="J76" s="61"/>
-      <c r="AC76" s="72"/>
-      <c r="AD76" s="73"/>
-      <c r="AE76" s="74"/>
-      <c r="AF76" s="74"/>
-      <c r="AG76" s="74"/>
-      <c r="AH76" s="74"/>
-      <c r="AI76" s="74"/>
-      <c r="AJ76" s="72"/>
+      <c r="AC76" s="71"/>
+      <c r="AD76" s="72"/>
+      <c r="AE76" s="73"/>
+      <c r="AF76" s="73"/>
+      <c r="AG76" s="73"/>
+      <c r="AH76" s="73"/>
+      <c r="AI76" s="73"/>
+      <c r="AJ76" s="71"/>
     </row>
     <row r="77" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="C77" s="80">
-        <v>30</v>
-      </c>
-      <c r="D77" s="68"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="68"/>
-      <c r="G77" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="H77" s="68"/>
-      <c r="I77" s="68"/>
-      <c r="J77" s="61"/>
-      <c r="AC77" s="72"/>
-      <c r="AD77" s="73"/>
-      <c r="AE77" s="74"/>
-      <c r="AF77" s="74"/>
-      <c r="AG77" s="74"/>
-      <c r="AH77" s="74"/>
-      <c r="AI77" s="74"/>
-      <c r="AJ77" s="72"/>
+      <c r="A77" s="70"/>
+      <c r="B77" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC77" s="71"/>
+      <c r="AD77" s="72"/>
+      <c r="AE77" s="73"/>
+      <c r="AF77" s="73"/>
+      <c r="AG77" s="73"/>
+      <c r="AH77" s="73"/>
+      <c r="AI77" s="73"/>
+      <c r="AJ77" s="71"/>
     </row>
     <row r="78" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A78" s="71"/>
+      <c r="A78" s="70"/>
       <c r="B78" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="AC78" s="72"/>
-      <c r="AD78" s="73"/>
-      <c r="AE78" s="74"/>
-      <c r="AF78" s="74"/>
-      <c r="AG78" s="74"/>
-      <c r="AH78" s="74"/>
-      <c r="AI78" s="74"/>
-      <c r="AJ78" s="72"/>
+      <c r="AC78" s="71"/>
+      <c r="AD78" s="72"/>
+      <c r="AE78" s="73"/>
+      <c r="AF78" s="73"/>
+      <c r="AG78" s="73"/>
+      <c r="AH78" s="73"/>
+      <c r="AI78" s="73"/>
+      <c r="AJ78" s="71"/>
     </row>
     <row r="79" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A79" s="71"/>
-      <c r="B79" s="44" t="s">
+      <c r="A79" s="70"/>
+      <c r="C79" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="63"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="63"/>
+      <c r="G79" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="AC79" s="72"/>
-      <c r="AD79" s="73"/>
-      <c r="AE79" s="74"/>
-      <c r="AF79" s="74"/>
-      <c r="AG79" s="74"/>
-      <c r="AH79" s="74"/>
-      <c r="AI79" s="74"/>
-      <c r="AJ79" s="72"/>
+      <c r="H79" s="64"/>
+      <c r="I79" s="64"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="64"/>
+      <c r="L79" s="64"/>
+      <c r="M79" s="65"/>
+      <c r="AC79" s="71"/>
+      <c r="AD79" s="72"/>
+      <c r="AE79" s="73"/>
+      <c r="AF79" s="73"/>
+      <c r="AG79" s="73"/>
+      <c r="AH79" s="73"/>
+      <c r="AI79" s="73"/>
+      <c r="AJ79" s="71"/>
     </row>
     <row r="80" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A80" s="71"/>
-      <c r="C80" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
+      <c r="A80" s="70"/>
+      <c r="C80" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
       <c r="G80" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="65"/>
-      <c r="L80" s="65"/>
-      <c r="M80" s="66"/>
-      <c r="AC80" s="72"/>
-      <c r="AD80" s="73"/>
-      <c r="AE80" s="74"/>
-      <c r="AF80" s="74"/>
-      <c r="AG80" s="74"/>
-      <c r="AH80" s="74"/>
-      <c r="AI80" s="74"/>
-      <c r="AJ80" s="72"/>
+        <v>130</v>
+      </c>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="61"/>
+      <c r="AC80" s="71"/>
+      <c r="AD80" s="72"/>
+      <c r="AE80" s="73"/>
+      <c r="AF80" s="73"/>
+      <c r="AG80" s="73"/>
+      <c r="AH80" s="73"/>
+      <c r="AI80" s="73"/>
+      <c r="AJ80" s="71"/>
     </row>
     <row r="81" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A81" s="71"/>
-      <c r="C81" s="67" t="s">
+      <c r="A81" s="70"/>
+      <c r="C81" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="H81" s="67"/>
+      <c r="I81" s="67"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="67"/>
+      <c r="L81" s="67"/>
+      <c r="M81" s="61"/>
+      <c r="AC81" s="71"/>
+      <c r="AD81" s="72"/>
+      <c r="AE81" s="73"/>
+      <c r="AF81" s="73"/>
+      <c r="AG81" s="73"/>
+      <c r="AH81" s="73"/>
+      <c r="AI81" s="73"/>
+      <c r="AJ81" s="71"/>
+    </row>
+    <row r="82" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A82" s="70"/>
+      <c r="C82" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="D81" s="68"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="68"/>
-      <c r="G81" s="77" t="s">
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" s="67"/>
+      <c r="I82" s="67"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="67"/>
+      <c r="L82" s="67"/>
+      <c r="M82" s="61"/>
+      <c r="AC82" s="71"/>
+      <c r="AD82" s="72"/>
+      <c r="AE82" s="73"/>
+      <c r="AF82" s="73"/>
+      <c r="AG82" s="73"/>
+      <c r="AH82" s="73"/>
+      <c r="AI82" s="73"/>
+      <c r="AJ82" s="71"/>
+    </row>
+    <row r="83" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A83" s="70"/>
+      <c r="C83" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="61"/>
+      <c r="AC83" s="71"/>
+      <c r="AD83" s="72"/>
+      <c r="AE83" s="73"/>
+      <c r="AF83" s="73"/>
+      <c r="AG83" s="73"/>
+      <c r="AH83" s="73"/>
+      <c r="AI83" s="73"/>
+      <c r="AJ83" s="71"/>
+    </row>
+    <row r="84" spans="1:36" ht="15" customHeight="1">
+      <c r="A84" s="70"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="44"/>
+      <c r="L84" s="44"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="44"/>
+      <c r="O84" s="44"/>
+      <c r="P84" s="44"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="26"/>
+      <c r="AE84" s="41"/>
+      <c r="AF84" s="41"/>
+      <c r="AG84" s="41"/>
+      <c r="AH84" s="41"/>
+      <c r="AI84" s="41"/>
+      <c r="AJ84" s="27"/>
+    </row>
+    <row r="85" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
+      <c r="A85" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="H81" s="68"/>
-      <c r="I81" s="68"/>
-      <c r="J81" s="68"/>
-      <c r="K81" s="68"/>
-      <c r="L81" s="68"/>
-      <c r="M81" s="61"/>
-      <c r="AC81" s="72"/>
-      <c r="AD81" s="73"/>
-      <c r="AE81" s="74"/>
-      <c r="AF81" s="74"/>
-      <c r="AG81" s="74"/>
-      <c r="AH81" s="74"/>
-      <c r="AI81" s="74"/>
-      <c r="AJ81" s="72"/>
-    </row>
-    <row r="82" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A82" s="71"/>
-      <c r="C82" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="H82" s="68"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="61"/>
-      <c r="AC82" s="72"/>
-      <c r="AD82" s="73"/>
-      <c r="AE82" s="74"/>
-      <c r="AF82" s="74"/>
-      <c r="AG82" s="74"/>
-      <c r="AH82" s="74"/>
-      <c r="AI82" s="74"/>
-      <c r="AJ82" s="72"/>
-    </row>
-    <row r="83" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A83" s="71"/>
-      <c r="C83" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="61"/>
-      <c r="AC83" s="72"/>
-      <c r="AD83" s="73"/>
-      <c r="AE83" s="74"/>
-      <c r="AF83" s="74"/>
-      <c r="AG83" s="74"/>
-      <c r="AH83" s="74"/>
-      <c r="AI83" s="74"/>
-      <c r="AJ83" s="72"/>
-    </row>
-    <row r="84" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A84" s="71"/>
-      <c r="C84" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="61"/>
-      <c r="AC84" s="72"/>
-      <c r="AD84" s="73"/>
-      <c r="AE84" s="74"/>
-      <c r="AF84" s="74"/>
-      <c r="AG84" s="74"/>
-      <c r="AH84" s="74"/>
-      <c r="AI84" s="74"/>
-      <c r="AJ84" s="72"/>
-    </row>
-    <row r="85" spans="1:36" ht="15" customHeight="1">
-      <c r="A85" s="71"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="44"/>
-      <c r="E85" s="44"/>
-      <c r="F85" s="44"/>
-      <c r="G85" s="44"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="44"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="44"/>
-      <c r="L85" s="44"/>
-      <c r="M85" s="44"/>
-      <c r="N85" s="44"/>
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
-      <c r="AC85" s="27"/>
-      <c r="AD85" s="26"/>
-      <c r="AE85" s="41"/>
-      <c r="AF85" s="41"/>
-      <c r="AG85" s="41"/>
-      <c r="AH85" s="41"/>
-      <c r="AI85" s="41"/>
-      <c r="AJ85" s="27"/>
+      <c r="AC85" s="71"/>
+      <c r="AD85" s="72"/>
+      <c r="AE85" s="73"/>
+      <c r="AF85" s="73"/>
+      <c r="AG85" s="73"/>
+      <c r="AH85" s="73"/>
+      <c r="AI85" s="73"/>
+      <c r="AJ85" s="71"/>
     </row>
     <row r="86" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B86" s="17" t="s">
+      <c r="A86" s="74"/>
+      <c r="B86" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="AC86" s="72"/>
-      <c r="AD86" s="73"/>
-      <c r="AE86" s="74"/>
-      <c r="AF86" s="74"/>
-      <c r="AG86" s="74"/>
-      <c r="AH86" s="74"/>
-      <c r="AI86" s="74"/>
-      <c r="AJ86" s="72"/>
+      <c r="AC86" s="71"/>
+      <c r="AD86" s="72"/>
+      <c r="AE86" s="73"/>
+      <c r="AF86" s="73"/>
+      <c r="AG86" s="73"/>
+      <c r="AH86" s="73"/>
+      <c r="AI86" s="73"/>
+      <c r="AJ86" s="71"/>
     </row>
     <row r="87" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A87" s="75"/>
-      <c r="B87" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC87" s="72"/>
-      <c r="AD87" s="73"/>
-      <c r="AE87" s="74"/>
-      <c r="AF87" s="74"/>
-      <c r="AG87" s="74"/>
-      <c r="AH87" s="74"/>
-      <c r="AI87" s="74"/>
-      <c r="AJ87" s="72"/>
-    </row>
-    <row r="88" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
-      <c r="A88" s="71"/>
-      <c r="AC88" s="72"/>
-      <c r="AD88" s="73"/>
-      <c r="AE88" s="74"/>
-      <c r="AF88" s="74"/>
-      <c r="AG88" s="74"/>
-      <c r="AH88" s="74"/>
-      <c r="AI88" s="74"/>
-      <c r="AJ88" s="72"/>
-    </row>
-    <row r="89" spans="1:36" ht="15" customHeight="1">
-      <c r="A89" s="58"/>
-      <c r="B89" s="30"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="30"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="30"/>
-      <c r="V89" s="30"/>
-      <c r="W89" s="30"/>
-      <c r="X89" s="30"/>
-      <c r="Y89" s="30"/>
-      <c r="Z89" s="30"/>
-      <c r="AA89" s="30"/>
-      <c r="AB89" s="30"/>
-      <c r="AC89" s="31"/>
-      <c r="AD89" s="28"/>
-      <c r="AE89" s="30"/>
-      <c r="AF89" s="30"/>
-      <c r="AG89" s="30"/>
-      <c r="AH89" s="30"/>
-      <c r="AI89" s="30"/>
-      <c r="AJ89" s="31"/>
+      <c r="A87" s="70"/>
+      <c r="AC87" s="71"/>
+      <c r="AD87" s="72"/>
+      <c r="AE87" s="73"/>
+      <c r="AF87" s="73"/>
+      <c r="AG87" s="73"/>
+      <c r="AH87" s="73"/>
+      <c r="AI87" s="73"/>
+      <c r="AJ87" s="71"/>
+    </row>
+    <row r="88" spans="1:36" ht="15" customHeight="1">
+      <c r="A88" s="58"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="30"/>
+      <c r="R88" s="30"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="30"/>
+      <c r="U88" s="30"/>
+      <c r="V88" s="30"/>
+      <c r="W88" s="30"/>
+      <c r="X88" s="30"/>
+      <c r="Y88" s="30"/>
+      <c r="Z88" s="30"/>
+      <c r="AA88" s="30"/>
+      <c r="AB88" s="30"/>
+      <c r="AC88" s="31"/>
+      <c r="AD88" s="28"/>
+      <c r="AE88" s="30"/>
+      <c r="AF88" s="30"/>
+      <c r="AG88" s="30"/>
+      <c r="AH88" s="30"/>
+      <c r="AI88" s="30"/>
+      <c r="AJ88" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6996,18 +5240,4 @@
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/03.設計/詳細設計書_STB03（DRAW）.xlsx
+++ b/03.設計/詳細設計書_STB03（DRAW）.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\OneDrive\デスクトップ\PGP_source\03.設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micch\OneDrive\デスクトップ\PGP\03.設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1099,14 +1099,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TM</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>描画の詳細内容は「画面設計書_STB.xlsx（シート：SCR02（プレイ画面））」を参照</t>
     <rPh sb="0" eb="2">
       <t>ビョウガ</t>
@@ -1129,6 +1121,14 @@
     <rPh sb="43" eb="45">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MT</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1782,6 +1782,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,23 +1815,50 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1823,51 +1868,6 @@
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="G15" s="82"/>
       <c r="H15" s="83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I15" s="84"/>
       <c r="J15" s="84"/>
@@ -2442,58 +2442,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="88" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
       <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="89" t="str">
+      <c r="Q1" s="95" t="str">
         <f>D5</f>
-        <v>TM</v>
-      </c>
-      <c r="R1" s="89"/>
+        <v>MT</v>
+      </c>
+      <c r="R1" s="95"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
       <c r="P2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="90">
+      <c r="Q2" s="96">
         <f>B5</f>
         <v>45170</v>
       </c>
-      <c r="R2" s="89"/>
+      <c r="R2" s="95"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="20"/>
@@ -2519,435 +2519,435 @@
       <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="97"/>
+      <c r="F4" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91" t="s">
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="91"/>
-      <c r="Q4" s="91"/>
-      <c r="R4" s="91"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="B5" s="92">
+      <c r="B5" s="90">
         <v>45170</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="91" t="s">
+        <v>135</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="94" t="s">
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="92"/>
+      <c r="R5" s="92"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="89"/>
+      <c r="N8" s="89"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="89"/>
+      <c r="Q8" s="89"/>
+      <c r="R8" s="89"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+      <c r="O9" s="89"/>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="89"/>
+      <c r="R9" s="89"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="97"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="89"/>
+      <c r="M15" s="89"/>
+      <c r="N15" s="89"/>
+      <c r="O15" s="89"/>
+      <c r="P15" s="89"/>
+      <c r="Q15" s="89"/>
+      <c r="R15" s="89"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="23">
         <v>12</v>
       </c>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="23">
         <v>13</v>
       </c>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="89"/>
+      <c r="M18" s="89"/>
+      <c r="N18" s="89"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="89"/>
+      <c r="Q18" s="89"/>
+      <c r="R18" s="89"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="89"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="89"/>
+      <c r="Q19" s="89"/>
+      <c r="R19" s="89"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="89"/>
+      <c r="P20" s="89"/>
+      <c r="Q20" s="89"/>
+      <c r="R20" s="89"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="89"/>
+      <c r="M21" s="89"/>
+      <c r="N21" s="89"/>
+      <c r="O21" s="89"/>
+      <c r="P21" s="89"/>
+      <c r="Q21" s="89"/>
+      <c r="R21" s="89"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
-      <c r="M22" s="97"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="89"/>
+      <c r="M22" s="89"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="89"/>
+      <c r="P22" s="89"/>
+      <c r="Q22" s="89"/>
+      <c r="R22" s="89"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2958,6 +2958,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
@@ -2966,78 +3038,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3067,112 +3067,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="101" t="s">
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="113" t="str">
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="110" t="str">
         <f>表紙!D6</f>
         <v>Street Biter (STB)</v>
       </c>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="101" t="s">
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="99" t="str">
+      <c r="Z1" s="106"/>
+      <c r="AA1" s="114" t="str">
         <f>更新履歴!D5</f>
-        <v>TM</v>
-      </c>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99" t="s">
+        <v>MT</v>
+      </c>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="99"/>
-      <c r="AG1" s="98" t="str">
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="113" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
-        <v>TM</v>
-      </c>
-      <c r="AH1" s="99"/>
-      <c r="AI1" s="99"/>
-      <c r="AJ1" s="99"/>
+        <v>MT</v>
+      </c>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="106"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="101" t="s">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="110" t="str">
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="107" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>03_DRAW</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="112"/>
-      <c r="Y2" s="101" t="s">
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="102"/>
-      <c r="AA2" s="100">
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="115">
         <f>更新履歴!B5</f>
         <v>45170</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="100"/>
-      <c r="AD2" s="100"/>
-      <c r="AE2" s="99" t="s">
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="99"/>
-      <c r="AG2" s="100">
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="115">
         <f>MAX(更新履歴!B:B)</f>
         <v>45170</v>
       </c>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="100"/>
-      <c r="AJ2" s="100"/>
+      <c r="AH2" s="115"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="35"/>
@@ -3938,7 +3938,7 @@
         <v>83</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G32" s="17"/>
       <c r="AC32" s="27"/>
@@ -5221,11 +5221,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I2:X2"/>
-    <mergeCell ref="I1:X1"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AA1:AD1"/>
@@ -5234,6 +5229,11 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I2:X2"/>
+    <mergeCell ref="I1:X1"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>

--- a/03.設計/詳細設計書_STB03（DRAW）.xlsx
+++ b/03.設計/詳細設計書_STB03（DRAW）.xlsx
@@ -767,19 +767,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>視界エリア（黄色プレイヤー時）</t>
-    <rPh sb="0" eb="2">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>21 ~ 25</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1129,6 +1116,19 @@
   </si>
   <si>
     <t>MT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>視界エリア（黄プレイヤー時）</t>
+    <rPh sb="0" eb="2">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1782,6 +1782,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1791,29 +1815,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1833,15 +1848,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1859,15 +1868,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2353,7 +2353,7 @@
       </c>
       <c r="G15" s="82"/>
       <c r="H15" s="83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I15" s="84"/>
       <c r="J15" s="84"/>
@@ -2442,58 +2442,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94" t="s">
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
       <c r="P1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="95" t="str">
+      <c r="Q1" s="89" t="str">
         <f>D5</f>
         <v>MT</v>
       </c>
-      <c r="R1" s="95"/>
+      <c r="R1" s="89"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="96">
+      <c r="Q2" s="90">
         <f>B5</f>
         <v>45170</v>
       </c>
-      <c r="R2" s="95"/>
+      <c r="R2" s="89"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="20"/>
@@ -2519,435 +2519,435 @@
       <c r="A4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97" t="s">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97" t="s">
+      <c r="E4" s="91"/>
+      <c r="F4" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="91"/>
+      <c r="R4" s="91"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="22">
         <v>1</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="92">
         <v>45170</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="91" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91" t="s">
+      <c r="C5" s="92"/>
+      <c r="D5" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="92" t="s">
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
-      <c r="N6" s="89"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="89"/>
-      <c r="M8" s="89"/>
-      <c r="N8" s="89"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="89"/>
-      <c r="Q8" s="89"/>
-      <c r="R8" s="89"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89"/>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="89"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="89"/>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="89"/>
-      <c r="M11" s="89"/>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="23">
         <v>8</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="23">
         <v>9</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="89"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="89"/>
-      <c r="R13" s="89"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="23">
         <v>10</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89"/>
-      <c r="O14" s="89"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="89"/>
-      <c r="R14" s="89"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="23">
         <v>11</v>
       </c>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="89"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="89"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="89"/>
-      <c r="Q15" s="89"/>
-      <c r="R15" s="89"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="23">
         <v>12</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="23">
         <v>13</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="23">
         <v>14</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="89"/>
-      <c r="M18" s="89"/>
-      <c r="N18" s="89"/>
-      <c r="O18" s="89"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="89"/>
-      <c r="R18" s="89"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="89"/>
-      <c r="P19" s="89"/>
-      <c r="Q19" s="89"/>
-      <c r="R19" s="89"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="97"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="23">
         <v>16</v>
       </c>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="89"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="89"/>
-      <c r="P20" s="89"/>
-      <c r="Q20" s="89"/>
-      <c r="R20" s="89"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="23">
         <v>17</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="89"/>
-      <c r="M21" s="89"/>
-      <c r="N21" s="89"/>
-      <c r="O21" s="89"/>
-      <c r="P21" s="89"/>
-      <c r="Q21" s="89"/>
-      <c r="R21" s="89"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="23">
         <v>18</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="89"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="89"/>
-      <c r="P22" s="89"/>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="89"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2958,6 +2958,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:O2"/>
     <mergeCell ref="Q1:R1"/>
@@ -2966,78 +3038,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -3067,112 +3067,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="15" customHeight="1">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="104" t="s">
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="110" t="str">
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="113" t="str">
         <f>表紙!D6</f>
         <v>Street Biter (STB)</v>
       </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="104" t="s">
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="114" t="str">
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="99" t="str">
         <f>更新履歴!D5</f>
         <v>MT</v>
       </c>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114" t="s">
+      <c r="AB1" s="99"/>
+      <c r="AC1" s="99"/>
+      <c r="AD1" s="99"/>
+      <c r="AE1" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="113" t="str">
+      <c r="AF1" s="99"/>
+      <c r="AG1" s="98" t="str">
         <f>VLOOKUP(MAX(更新履歴!B:B),更新履歴!B:D,3,FALSE)</f>
         <v>MT</v>
       </c>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
+      <c r="AH1" s="99"/>
+      <c r="AI1" s="99"/>
+      <c r="AJ1" s="99"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="107" t="str">
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="110" t="str">
         <f>RIGHT(表紙!D7,LEN(表紙!D7)-FIND("_",表紙!D7))</f>
         <v>03_DRAW</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="104" t="s">
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="115">
+      <c r="Z2" s="102"/>
+      <c r="AA2" s="100">
         <f>更新履歴!B5</f>
         <v>45170</v>
       </c>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="114" t="s">
+      <c r="AB2" s="100"/>
+      <c r="AC2" s="100"/>
+      <c r="AD2" s="100"/>
+      <c r="AE2" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="115">
+      <c r="AF2" s="99"/>
+      <c r="AG2" s="100">
         <f>MAX(更新履歴!B:B)</f>
         <v>45170</v>
       </c>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="100"/>
+      <c r="AJ2" s="100"/>
     </row>
     <row r="3" spans="1:36" ht="15" customHeight="1">
       <c r="A3" s="35"/>
@@ -3938,7 +3938,7 @@
         <v>83</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="17"/>
       <c r="AC32" s="27"/>
@@ -4305,7 +4305,7 @@
       <c r="I50" s="64"/>
       <c r="J50" s="64"/>
       <c r="K50" s="75" t="s">
-        <v>88</v>
+        <v>135</v>
       </c>
       <c r="L50" s="64"/>
       <c r="M50" s="64"/>
@@ -4325,19 +4325,19 @@
       <c r="A51" s="57"/>
       <c r="B51" s="17"/>
       <c r="C51" s="66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D51" s="67"/>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
       <c r="G51" s="76" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H51" s="67"/>
       <c r="I51" s="67"/>
       <c r="J51" s="67"/>
       <c r="K51" s="76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L51" s="67"/>
       <c r="M51" s="67"/>
@@ -4357,19 +4357,19 @@
       <c r="A52" s="57"/>
       <c r="B52" s="17"/>
       <c r="C52" s="66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D52" s="67"/>
       <c r="E52" s="67"/>
       <c r="F52" s="67"/>
       <c r="G52" s="76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H52" s="67"/>
       <c r="I52" s="67"/>
       <c r="J52" s="67"/>
       <c r="K52" s="76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L52" s="67"/>
       <c r="M52" s="67"/>
@@ -4403,7 +4403,7 @@
         <v>35</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G54" s="17"/>
       <c r="AC54" s="27"/>
@@ -4418,7 +4418,7 @@
     <row r="55" spans="1:36" ht="15" customHeight="1">
       <c r="A55" s="59"/>
       <c r="B55" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G55" s="17"/>
       <c r="AC55" s="27"/>
@@ -4448,7 +4448,7 @@
         <v>36</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G57" s="17"/>
       <c r="AC57" s="27"/>
@@ -4463,7 +4463,7 @@
     <row r="58" spans="1:36" ht="15" customHeight="1">
       <c r="A58" s="59"/>
       <c r="B58" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G58" s="17"/>
       <c r="AC58" s="27"/>
@@ -4478,7 +4478,7 @@
     <row r="59" spans="1:36" ht="15" customHeight="1">
       <c r="A59" s="59"/>
       <c r="B59" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G59" s="17"/>
       <c r="AC59" s="27"/>
@@ -4499,23 +4499,23 @@
       <c r="E60" s="63"/>
       <c r="F60" s="63"/>
       <c r="G60" s="75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H60" s="65"/>
       <c r="I60" s="75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J60" s="65"/>
       <c r="K60" s="75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L60" s="65"/>
       <c r="M60" s="75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N60" s="65"/>
       <c r="O60" s="75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P60" s="65"/>
       <c r="AC60" s="71"/>
@@ -4536,23 +4536,23 @@
       <c r="E61" s="67"/>
       <c r="F61" s="67"/>
       <c r="G61" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H61" s="61"/>
       <c r="I61" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J61" s="61"/>
       <c r="K61" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L61" s="61"/>
       <c r="M61" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N61" s="61"/>
       <c r="O61" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P61" s="61"/>
       <c r="AC61" s="71"/>
@@ -4567,29 +4567,29 @@
     <row r="62" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="B62" s="70"/>
       <c r="C62" s="66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D62" s="67"/>
       <c r="E62" s="67"/>
       <c r="F62" s="67"/>
       <c r="G62" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H62" s="61"/>
       <c r="I62" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J62" s="61"/>
       <c r="K62" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L62" s="61"/>
       <c r="M62" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N62" s="61"/>
       <c r="O62" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P62" s="61"/>
       <c r="AC62" s="71"/>
@@ -4604,29 +4604,29 @@
     <row r="63" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="B63" s="70"/>
       <c r="C63" s="66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D63" s="67"/>
       <c r="E63" s="67"/>
       <c r="F63" s="67"/>
       <c r="G63" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H63" s="61"/>
       <c r="I63" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J63" s="61"/>
       <c r="K63" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L63" s="61"/>
       <c r="M63" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N63" s="61"/>
       <c r="O63" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P63" s="61"/>
       <c r="AC63" s="71"/>
@@ -4641,29 +4641,29 @@
     <row r="64" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="B64" s="70"/>
       <c r="C64" s="66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D64" s="67"/>
       <c r="E64" s="67"/>
       <c r="F64" s="67"/>
       <c r="G64" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H64" s="61"/>
       <c r="I64" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J64" s="61"/>
       <c r="K64" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L64" s="61"/>
       <c r="M64" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N64" s="61"/>
       <c r="O64" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P64" s="61"/>
       <c r="AC64" s="71"/>
@@ -4678,29 +4678,29 @@
     <row r="65" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="B65" s="70"/>
       <c r="C65" s="66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D65" s="67"/>
       <c r="E65" s="67"/>
       <c r="F65" s="67"/>
       <c r="G65" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H65" s="61"/>
       <c r="I65" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J65" s="61"/>
       <c r="K65" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L65" s="61"/>
       <c r="M65" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N65" s="61"/>
       <c r="O65" s="76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P65" s="61"/>
       <c r="AC65" s="71"/>
@@ -4716,29 +4716,29 @@
       <c r="A66" s="59"/>
       <c r="B66" s="17"/>
       <c r="C66" s="66" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D66" s="67"/>
       <c r="E66" s="67"/>
       <c r="F66" s="67"/>
       <c r="G66" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H66" s="61"/>
       <c r="I66" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J66" s="61"/>
       <c r="K66" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L66" s="61"/>
       <c r="M66" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N66" s="61"/>
       <c r="O66" s="76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P66" s="61"/>
       <c r="AC66" s="27"/>
@@ -4768,7 +4768,7 @@
         <v>37</v>
       </c>
       <c r="B68" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G68" s="17"/>
       <c r="AC68" s="27"/>
@@ -4783,7 +4783,7 @@
     <row r="69" spans="1:36" ht="15" customHeight="1">
       <c r="A69" s="57"/>
       <c r="B69" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C69" s="44"/>
       <c r="D69" s="44"/>
@@ -4808,7 +4808,7 @@
     <row r="70" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="70"/>
       <c r="B70" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC70" s="71"/>
       <c r="AD70" s="72"/>
@@ -4828,7 +4828,7 @@
       <c r="E71" s="63"/>
       <c r="F71" s="63"/>
       <c r="G71" s="75" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H71" s="64"/>
       <c r="I71" s="64"/>
@@ -4850,7 +4850,7 @@
       <c r="E72" s="67"/>
       <c r="F72" s="67"/>
       <c r="G72" s="76" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H72" s="67"/>
       <c r="I72" s="67"/>
@@ -4867,13 +4867,13 @@
     <row r="73" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="70"/>
       <c r="C73" s="66" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D73" s="67"/>
       <c r="E73" s="67"/>
       <c r="F73" s="67"/>
       <c r="G73" s="76" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H73" s="67"/>
       <c r="I73" s="67"/>
@@ -4891,13 +4891,13 @@
       <c r="A74" s="70"/>
       <c r="B74" s="78"/>
       <c r="C74" s="66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D74" s="67"/>
       <c r="E74" s="67"/>
       <c r="F74" s="67"/>
       <c r="G74" s="76" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H74" s="67"/>
       <c r="I74" s="67"/>
@@ -4914,13 +4914,13 @@
     <row r="75" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="74"/>
       <c r="C75" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D75" s="67"/>
       <c r="E75" s="67"/>
       <c r="F75" s="67"/>
       <c r="G75" s="76" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H75" s="67"/>
       <c r="I75" s="67"/>
@@ -4942,7 +4942,7 @@
       <c r="E76" s="67"/>
       <c r="F76" s="67"/>
       <c r="G76" s="76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H76" s="67"/>
       <c r="I76" s="67"/>
@@ -4959,7 +4959,7 @@
     <row r="77" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="70"/>
       <c r="B77" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC77" s="71"/>
       <c r="AD77" s="72"/>
@@ -4973,7 +4973,7 @@
     <row r="78" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="70"/>
       <c r="B78" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC78" s="71"/>
       <c r="AD78" s="72"/>
@@ -4993,7 +4993,7 @@
       <c r="E79" s="63"/>
       <c r="F79" s="63"/>
       <c r="G79" s="75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H79" s="64"/>
       <c r="I79" s="64"/>
@@ -5013,13 +5013,13 @@
     <row r="80" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A80" s="70"/>
       <c r="C80" s="66" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D80" s="67"/>
       <c r="E80" s="67"/>
       <c r="F80" s="67"/>
       <c r="G80" s="76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H80" s="67"/>
       <c r="I80" s="67"/>
@@ -5065,7 +5065,7 @@
     <row r="82" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A82" s="70"/>
       <c r="C82" s="66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D82" s="67"/>
       <c r="E82" s="67"/>
@@ -5091,7 +5091,7 @@
     <row r="83" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A83" s="70"/>
       <c r="C83" s="66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D83" s="67"/>
       <c r="E83" s="67"/>
@@ -5145,7 +5145,7 @@
         <v>38</v>
       </c>
       <c r="B85" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC85" s="71"/>
       <c r="AD85" s="72"/>
@@ -5159,7 +5159,7 @@
     <row r="86" spans="1:36" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="74"/>
       <c r="B86" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC86" s="71"/>
       <c r="AD86" s="72"/>
@@ -5221,6 +5221,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I2:X2"/>
+    <mergeCell ref="I1:X1"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="AG1:AJ1"/>
     <mergeCell ref="AG2:AJ2"/>
     <mergeCell ref="AA1:AD1"/>
@@ -5229,11 +5234,6 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE1:AF1"/>
     <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I2:X2"/>
-    <mergeCell ref="I1:X1"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
